--- a/Resultados/comparison/Resultados.xlsx
+++ b/Resultados/comparison/Resultados.xlsx
@@ -14,18 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Prompt</t>
   </si>
   <si>
-    <t>Version</t>
+    <t>Puntaje</t>
   </si>
   <si>
     <t>Correct</t>
   </si>
   <si>
-    <t>Incorrect</t>
+    <t>Incorrecto</t>
+  </si>
+  <si>
+    <t>N° de respuestas</t>
   </si>
   <si>
     <t>V1</t>
@@ -35,6 +38,24 @@
   </si>
   <si>
     <t>V4</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>334</t>
   </si>
 </sst>
 </file>
@@ -392,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,13 +432,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2">
         <v>48</v>
@@ -425,13 +449,16 @@
       <c r="D2">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3">
         <v>48</v>
@@ -439,13 +466,16 @@
       <c r="D3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4">
         <v>51</v>
@@ -453,13 +483,16 @@
       <c r="D4">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -467,13 +500,16 @@
       <c r="D5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -481,13 +517,16 @@
       <c r="D6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -495,19 +534,25 @@
       <c r="D7">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
       <c r="C8">
         <v>11</v>
       </c>
       <c r="D8">
         <v>5</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
